--- a/biology/Zoologie/Euploea_desjardinsii/Euploea_desjardinsii.xlsx
+++ b/biology/Zoologie/Euploea_desjardinsii/Euploea_desjardinsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea desjardinsii, ou Euploea euphon desjardinsii, est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Euploea endémique de Rodrigues dans les Mascareignes (archipel de l'océan Indien), et probablement disparue.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea desjardinsii a été décrit par Félix Édouard Guérin-Méneville en 1844[1].
-Euploea desjardinsii est pour généralement considéré comme une espèce à part entière[1]. Cependant certains documents le nomment Euploea euphon desjardinsii comme donc une sous-espèce d’Euploea euphon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea desjardinsii a été décrit par Félix Édouard Guérin-Méneville en 1844.
+Euploea desjardinsii est pour généralement considéré comme une espèce à part entière. Cependant certains documents le nomment Euploea euphon desjardinsii comme donc une sous-espèce d’Euploea euphon.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce grand papillon marron présente aux ailes postérieures une bande submarginale de taches blanche qui se rejoignent pour former une bande submarginale blanche.
 </t>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Asclepiadaceae et des Apocynacées.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Asclepiadaceae et des Apocynacées.
 </t>
         </is>
       </c>
@@ -606,11 +627,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea desjardinsii est présent aux Mascareignes, il est endémique de l'ile Rodrigues[1].
-Protection
-Euploea desjardinsii est très probablement disparu (d'après [Viette] en 1995)[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea desjardinsii est présent aux Mascareignes, il est endémique de l'ile Rodrigues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euploea_desjardinsii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_desjardinsii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea desjardinsii est très probablement disparu (d'après [Viette] en 1995)
 </t>
         </is>
       </c>
